--- a/results/ML_All/Modulus (GPa)_ml.xlsx
+++ b/results/ML_All/Modulus (GPa)_ml.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'max_depth': 20, 'n_estimators': 100}</t>
+          <t>{'max_depth': 50, 'n_estimators': 50}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 1, 'n_layer': 32, 'n_nodes': 128, 'random_seed': 665, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
+          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 2, 'n_layer': 64, 'n_nodes': 128, 'random_seed': 856, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
         </is>
       </c>
     </row>
@@ -561,13 +561,13 @@
         <v>0.09802448634241831</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0765392380880064</v>
+        <v>0.07633399699235413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07109615387854949</v>
+        <v>0.07172586620849958</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1109003039261126</v>
+        <v>0.1124061764308056</v>
       </c>
       <c r="I3" t="n">
         <v>0.07064347968126952</v>
@@ -576,7 +576,7 @@
         <v>0.0755862135557039</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04620935599014225</v>
+        <v>0.04526424254504183</v>
       </c>
     </row>
     <row r="4">
@@ -598,13 +598,13 @@
         <v>0.6505041532181911</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8007737327652885</v>
+        <v>0.8004907225253259</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8284501926526537</v>
+        <v>0.8253679590716827</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5705330365905665</v>
+        <v>0.5613696538801605</v>
       </c>
       <c r="I4" t="n">
         <v>0.8341476374978718</v>
@@ -613,7 +613,7 @@
         <v>0.805870820526532</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9279478123933282</v>
+        <v>0.9302770881995229</v>
       </c>
     </row>
     <row r="5">
@@ -635,13 +635,13 @@
         <v>63.12063577947879</v>
       </c>
       <c r="F5" t="n">
-        <v>20.72914584202171</v>
+        <v>19.23281259306575</v>
       </c>
       <c r="G5" t="n">
-        <v>22.00718578050915</v>
+        <v>22.18864652085109</v>
       </c>
       <c r="H5" t="n">
-        <v>84.97985174705414</v>
+        <v>84.72932397939235</v>
       </c>
       <c r="I5" t="n">
         <v>17.86475286219603</v>
@@ -650,7 +650,7 @@
         <v>22.16202796724091</v>
       </c>
       <c r="K5" t="n">
-        <v>12.7619736628745</v>
+        <v>13.51650447913631</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML_All/Modulus (GPa)_ml.xlsx
+++ b/results/ML_All/Modulus (GPa)_ml.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'alpha': 0.01, 'max_iter': 1000}</t>
+          <t>{'alpha': 0.1, 'max_iter': 1000}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'max_depth': 50, 'n_estimators': 50}</t>
+          <t>{'max_depth': 50, 'n_estimators': 200}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 3, 'n_estimators': 200}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'n_estimators': 100}</t>
+          <t>{'learning_rate': 0.1, 'n_estimators': 200}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 200}</t>
+          <t>{'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 100}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 2, 'n_layer': 64, 'n_nodes': 128, 'random_seed': 856, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
+          <t>{'activation': 'leaky_relu', 'b_random_vec_range': [0, 10], 'lam': 2, 'n_layer': 64, 'n_nodes': 128, 'random_seed': 882, 'same_feature': True, 'w_random_vec_range': [-10, 10]}</t>
         </is>
       </c>
     </row>
@@ -549,34 +549,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09143384089331118</v>
+        <v>0.0885986085186389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1146080516041144</v>
+        <v>0.1104093246962435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1015125252029298</v>
+        <v>0.09813628659031297</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09802448634241831</v>
+        <v>0.0978653792501606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07633399699235413</v>
+        <v>0.07805456951742873</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07172586620849958</v>
+        <v>0.07692894996935146</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1124061764308056</v>
+        <v>0.1106237932078655</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07064347968126952</v>
+        <v>0.0738026804302649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0755862135557039</v>
+        <v>0.07278482903015036</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04526424254504183</v>
+        <v>0.04492345241591222</v>
       </c>
     </row>
     <row r="4">
@@ -586,34 +586,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7176411715628073</v>
+        <v>0.7231896947312604</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5641741958842206</v>
+        <v>0.5857057056389258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6584497832494504</v>
+        <v>0.669936750379415</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6505041532181911</v>
+        <v>0.6367001382937567</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8004907225253259</v>
+        <v>0.791662064613185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8253679590716827</v>
+        <v>0.7976680914211356</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5613696538801605</v>
+        <v>0.5429244818562209</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8341476374978718</v>
+        <v>0.7742791726891379</v>
       </c>
       <c r="J4" t="n">
-        <v>0.805870820526532</v>
+        <v>0.8195502283386082</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9302770881995229</v>
+        <v>0.921595710794913</v>
       </c>
     </row>
     <row r="5">
@@ -623,34 +623,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.07936028117194</v>
+        <v>27.47949770088503</v>
       </c>
       <c r="C5" t="n">
-        <v>54.78889792338108</v>
+        <v>56.30056283062441</v>
       </c>
       <c r="D5" t="n">
-        <v>35.47011849580904</v>
+        <v>36.22051711876593</v>
       </c>
       <c r="E5" t="n">
-        <v>63.12063577947879</v>
+        <v>62.71131990337974</v>
       </c>
       <c r="F5" t="n">
-        <v>19.23281259306575</v>
+        <v>20.40586830188068</v>
       </c>
       <c r="G5" t="n">
-        <v>22.18864652085109</v>
+        <v>21.83669234854217</v>
       </c>
       <c r="H5" t="n">
-        <v>84.72932397939235</v>
+        <v>84.6733506131568</v>
       </c>
       <c r="I5" t="n">
-        <v>17.86475286219603</v>
+        <v>19.4730159888745</v>
       </c>
       <c r="J5" t="n">
-        <v>22.16202796724091</v>
+        <v>25.26368650063011</v>
       </c>
       <c r="K5" t="n">
-        <v>13.51650447913631</v>
+        <v>10.56005703721227</v>
       </c>
     </row>
   </sheetData>
